--- a/Code/Results/Cases/Case_11_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_11_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.29996711258983</v>
+        <v>24.49266632314295</v>
       </c>
       <c r="C2">
-        <v>18.71228480845788</v>
+        <v>18.96828366782543</v>
       </c>
       <c r="D2">
-        <v>3.712146929608842</v>
+        <v>4.333588960490924</v>
       </c>
       <c r="E2">
-        <v>30.09909619486762</v>
+        <v>29.21382029618269</v>
       </c>
       <c r="F2">
-        <v>17.2999510047735</v>
+        <v>18.59124872237463</v>
       </c>
       <c r="G2">
-        <v>2.043908991758983</v>
+        <v>2.071584505415577</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.159216038339132</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.138252493947185</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.85740437499542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.5687144452271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.62815818503517</v>
+        <v>22.88573587628169</v>
       </c>
       <c r="C3">
-        <v>17.57199810504744</v>
+        <v>17.85725570160992</v>
       </c>
       <c r="D3">
-        <v>3.59749845654561</v>
+        <v>4.196859081625459</v>
       </c>
       <c r="E3">
-        <v>27.88810281571637</v>
+        <v>27.32102133038484</v>
       </c>
       <c r="F3">
-        <v>16.59918913251503</v>
+        <v>18.00587086705919</v>
       </c>
       <c r="G3">
-        <v>2.051043767845687</v>
+        <v>2.076468730828436</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.90028629522092</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.942540537153831</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.58751217609845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.3407332244305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54360327761603</v>
+        <v>21.83970279736576</v>
       </c>
       <c r="C4">
-        <v>16.83526365874923</v>
+        <v>17.14498019991685</v>
       </c>
       <c r="D4">
-        <v>3.525577805703337</v>
+        <v>4.110482788901874</v>
       </c>
       <c r="E4">
-        <v>26.46895975988461</v>
+        <v>26.09414241005118</v>
       </c>
       <c r="F4">
-        <v>16.18963647903525</v>
+        <v>17.64924845131027</v>
       </c>
       <c r="G4">
-        <v>2.055526369339699</v>
+        <v>2.07955589531849</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.735997085624268</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.819518945045894</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.44897348634379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.2082728333152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08694938015424</v>
+        <v>21.39827057864807</v>
       </c>
       <c r="C5">
-        <v>16.52587764114491</v>
+        <v>16.86313572588381</v>
       </c>
       <c r="D5">
-        <v>3.495912843721082</v>
+        <v>4.076836119671445</v>
       </c>
       <c r="E5">
-        <v>25.87476459299186</v>
+        <v>25.57764346556439</v>
       </c>
       <c r="F5">
-        <v>16.02808891136405</v>
+        <v>17.49084442949468</v>
       </c>
       <c r="G5">
-        <v>2.057380137012188</v>
+        <v>2.080842831687721</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.667542724177149</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.769161091993968</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.39910515610754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.14526399565041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01023280990493</v>
+        <v>21.32384007689132</v>
       </c>
       <c r="C6">
-        <v>16.47395282490028</v>
+        <v>16.8353225505169</v>
       </c>
       <c r="D6">
-        <v>3.490966312316485</v>
+        <v>4.073836145152685</v>
       </c>
       <c r="E6">
-        <v>25.77512858479972</v>
+        <v>25.49061016046219</v>
       </c>
       <c r="F6">
-        <v>16.00159092923039</v>
+        <v>17.44754621655228</v>
       </c>
       <c r="G6">
-        <v>2.057689629649815</v>
+        <v>2.081065407239584</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.655917759783867</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.761577121908168</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.39121446165234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.12160564649061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53750426788429</v>
+        <v>21.83321247646425</v>
       </c>
       <c r="C7">
-        <v>16.83112818660624</v>
+        <v>17.19321626836599</v>
       </c>
       <c r="D7">
-        <v>3.525179139713713</v>
+        <v>4.117147111988736</v>
       </c>
       <c r="E7">
-        <v>26.46101104974448</v>
+        <v>26.08648815999262</v>
       </c>
       <c r="F7">
-        <v>16.18743596040851</v>
+        <v>17.60102890494004</v>
       </c>
       <c r="G7">
-        <v>2.055551258425103</v>
+        <v>2.079593170369083</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.734610986851889</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.820713870448712</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.44827462669668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.17126314780701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.73551876822907</v>
+        <v>23.95016255225594</v>
       </c>
       <c r="C8">
-        <v>18.32672470576468</v>
+        <v>18.65577656276812</v>
       </c>
       <c r="D8">
-        <v>3.672947966651937</v>
+        <v>4.296175493917771</v>
       </c>
       <c r="E8">
-        <v>29.34927899219528</v>
+        <v>28.57366895627258</v>
       </c>
       <c r="F8">
-        <v>17.05411325291634</v>
+        <v>18.33033639464374</v>
       </c>
       <c r="G8">
-        <v>2.046348848654694</v>
+        <v>2.073275125169522</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.070445310790362</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.073227600650782</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.75856900286794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.44169348795232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.58992846810313</v>
+        <v>27.63402988064382</v>
       </c>
       <c r="C9">
-        <v>20.96886708758744</v>
+        <v>21.197725204966</v>
       </c>
       <c r="D9">
-        <v>3.949617738405444</v>
+        <v>4.614753228655371</v>
       </c>
       <c r="E9">
-        <v>34.54416360005666</v>
+        <v>32.94140957282742</v>
       </c>
       <c r="F9">
-        <v>18.91209816875172</v>
+        <v>19.85430217178764</v>
       </c>
       <c r="G9">
-        <v>2.029038174210597</v>
+        <v>2.06152701904097</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.688970248645137</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.5447492924246</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.5917046794574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.09616439954949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.1514239417783</v>
+        <v>30.05482127450283</v>
       </c>
       <c r="C10">
-        <v>22.73412734669459</v>
+        <v>22.928038186333</v>
       </c>
       <c r="D10">
-        <v>4.143847419069983</v>
+        <v>4.874742813704069</v>
       </c>
       <c r="E10">
-        <v>38.10541674315342</v>
+        <v>34.9646762972166</v>
       </c>
       <c r="F10">
-        <v>20.38886581392279</v>
+        <v>20.76645788651782</v>
       </c>
       <c r="G10">
-        <v>2.016655865023571</v>
+        <v>2.053507625778628</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.0828560900355</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.872324092016694</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.35070574762169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.44422833104606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.25993359089109</v>
+        <v>31.06280360374938</v>
       </c>
       <c r="C11">
-        <v>23.49970860925279</v>
+        <v>23.67909720321394</v>
       </c>
       <c r="D11">
-        <v>4.230104353320488</v>
+        <v>5.319755378876647</v>
       </c>
       <c r="E11">
-        <v>39.67789339784362</v>
+        <v>28.3645749766292</v>
       </c>
       <c r="F11">
-        <v>21.22734920633512</v>
+        <v>19.49143900051977</v>
       </c>
       <c r="G11">
-        <v>2.011067233912696</v>
+        <v>2.051789214662098</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.451631542486619</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.959039045160723</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.87826780171814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.22126316644512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.67171679903262</v>
+        <v>31.42548808711483</v>
       </c>
       <c r="C12">
-        <v>23.7843128832263</v>
+        <v>23.9023462235017</v>
       </c>
       <c r="D12">
-        <v>4.262459450767984</v>
+        <v>5.642827013362487</v>
       </c>
       <c r="E12">
-        <v>40.26726686840232</v>
+        <v>22.41126104158498</v>
       </c>
       <c r="F12">
-        <v>21.54455073492708</v>
+        <v>18.26442248682248</v>
       </c>
       <c r="G12">
-        <v>2.008954605754061</v>
+        <v>2.051750605528799</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.267815255078704</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.968982522168912</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.11967569243916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.1551535732224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.58338413468093</v>
+        <v>31.32574147658034</v>
       </c>
       <c r="C13">
-        <v>23.72325271567976</v>
+        <v>23.8023350085204</v>
       </c>
       <c r="D13">
-        <v>4.2555049839369</v>
+        <v>5.904668838461662</v>
       </c>
       <c r="E13">
-        <v>40.14059250483037</v>
+        <v>16.48110235038558</v>
       </c>
       <c r="F13">
-        <v>21.47624739385646</v>
+        <v>16.90881854901085</v>
       </c>
       <c r="G13">
-        <v>2.009409481375923</v>
+        <v>2.053024761394272</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.295261935674344</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.922986396371375</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.06767213539621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.08345473812526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.29397023183071</v>
+        <v>31.04587492091814</v>
       </c>
       <c r="C14">
-        <v>23.52322896401708</v>
+        <v>23.59796749859168</v>
       </c>
       <c r="D14">
-        <v>4.23277243299895</v>
+        <v>6.064911838226821</v>
       </c>
       <c r="E14">
-        <v>39.72649888003885</v>
+        <v>12.39948689670872</v>
       </c>
       <c r="F14">
-        <v>21.25345106127962</v>
+        <v>15.87950193874549</v>
       </c>
       <c r="G14">
-        <v>2.010893369838846</v>
+        <v>2.054486513402981</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.098170924744764</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.867096236766066</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.89812336330238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.32485027251851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11566134438054</v>
+        <v>30.8771560147254</v>
       </c>
       <c r="C15">
-        <v>23.4000205008293</v>
+        <v>23.49405501822589</v>
       </c>
       <c r="D15">
-        <v>4.218807784540204</v>
+        <v>6.093011043100423</v>
       </c>
       <c r="E15">
-        <v>39.4720855897196</v>
+        <v>11.41723285621635</v>
       </c>
       <c r="F15">
-        <v>21.11694501275388</v>
+        <v>15.5867530759949</v>
       </c>
       <c r="G15">
-        <v>2.011802686326441</v>
+        <v>2.055159410205087</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.282752320104646</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.841502725540322</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.79430259681137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.1299896727916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.07785302841312</v>
+        <v>29.90608954675489</v>
       </c>
       <c r="C16">
-        <v>22.68334771287208</v>
+        <v>22.82702198544147</v>
       </c>
       <c r="D16">
-        <v>4.138167417121538</v>
+        <v>5.945605588702913</v>
       </c>
       <c r="E16">
-        <v>38.00175647449707</v>
+        <v>11.28027543478703</v>
       </c>
       <c r="F16">
-        <v>20.33401832548837</v>
+        <v>15.37602402775759</v>
       </c>
       <c r="G16">
-        <v>2.01702176164178</v>
+        <v>2.058301267800048</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.001793318481235</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.713436795145757</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.32663367291853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.15774339611703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.42677885381245</v>
+        <v>29.29981657985098</v>
       </c>
       <c r="C17">
-        <v>22.23415244515487</v>
+        <v>22.41983437938699</v>
       </c>
       <c r="D17">
-        <v>4.088153425241781</v>
+        <v>5.742303216938881</v>
       </c>
       <c r="E17">
-        <v>37.08807866683508</v>
+        <v>13.38635553275821</v>
       </c>
       <c r="F17">
-        <v>19.93861965021826</v>
+        <v>15.7802112669253</v>
       </c>
       <c r="G17">
-        <v>2.020232994310831</v>
+        <v>2.059961030497345</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.307931783648366</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.644269112860384</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.11944004746706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.58299135364639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.046947438029</v>
+        <v>28.95452436606275</v>
       </c>
       <c r="C18">
-        <v>21.97225679478444</v>
+        <v>22.16444665626625</v>
       </c>
       <c r="D18">
-        <v>4.059189256481922</v>
+        <v>5.465780429740172</v>
       </c>
       <c r="E18">
-        <v>36.55802883949858</v>
+        <v>17.95867208990727</v>
       </c>
       <c r="F18">
-        <v>19.71922768052412</v>
+        <v>16.78554409291046</v>
       </c>
       <c r="G18">
-        <v>2.022084344121928</v>
+        <v>2.060395421184307</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.266155076833628</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.619276282305147</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.00341954567534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.42595252609114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.91741909144875</v>
+        <v>28.85164769548753</v>
       </c>
       <c r="C19">
-        <v>21.88297495701926</v>
+        <v>22.13903500602907</v>
       </c>
       <c r="D19">
-        <v>4.049348848841772</v>
+        <v>5.173506130908312</v>
       </c>
       <c r="E19">
-        <v>36.37776445352535</v>
+        <v>24.24597306498533</v>
       </c>
       <c r="F19">
-        <v>19.64525149608282</v>
+        <v>18.11461374072026</v>
       </c>
       <c r="G19">
-        <v>2.022712000138848</v>
+        <v>2.059659617645809</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.278060908810593</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.643304718169249</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.96467469230429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.49383433671839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.49663940566342</v>
+        <v>29.43636915149335</v>
       </c>
       <c r="C20">
-        <v>22.28233491534761</v>
+        <v>22.61293314624111</v>
       </c>
       <c r="D20">
-        <v>4.093497996693085</v>
+        <v>4.829660403423384</v>
       </c>
       <c r="E20">
-        <v>37.1858046053578</v>
+        <v>34.40385939798826</v>
       </c>
       <c r="F20">
-        <v>19.97936938415224</v>
+        <v>20.3946872154569</v>
       </c>
       <c r="G20">
-        <v>2.019890722975315</v>
+        <v>2.0556477065682</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.977166495449919</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.792827574933824</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.1411691038638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.24019517860266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.37919336988499</v>
+        <v>31.2128873691445</v>
       </c>
       <c r="C21">
-        <v>23.58212402688103</v>
+        <v>23.87180592760401</v>
       </c>
       <c r="D21">
-        <v>4.239457939530541</v>
+        <v>4.963924874935277</v>
       </c>
       <c r="E21">
-        <v>39.84828698316163</v>
+        <v>37.23156527326921</v>
       </c>
       <c r="F21">
-        <v>21.3188991544826</v>
+        <v>21.41888838623526</v>
       </c>
       <c r="G21">
-        <v>2.010457439416305</v>
+        <v>2.049227471009077</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.331854164063795</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.05173183932555</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.94791686169386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.78587279155189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.56309975540136</v>
+        <v>32.32256361032284</v>
       </c>
       <c r="C22">
-        <v>24.40074205320526</v>
+        <v>24.6138801197208</v>
       </c>
       <c r="D22">
-        <v>4.333052850282511</v>
+        <v>5.059435747161129</v>
       </c>
       <c r="E22">
-        <v>41.55330773732182</v>
+        <v>38.57128553915183</v>
       </c>
       <c r="F22">
-        <v>22.24171177571109</v>
+        <v>22.03675548966449</v>
       </c>
       <c r="G22">
-        <v>2.004312106826866</v>
+        <v>2.045186385304464</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.540833089149837</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.212966268023601</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.65111499022666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.11096486298121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.93541530105217</v>
+        <v>31.73534804202202</v>
       </c>
       <c r="C23">
-        <v>23.96662339225427</v>
+        <v>24.17410756943924</v>
       </c>
       <c r="D23">
-        <v>4.283265111233931</v>
+        <v>5.001185173529103</v>
       </c>
       <c r="E23">
-        <v>40.64623846627671</v>
+        <v>37.86180514530616</v>
       </c>
       <c r="F23">
-        <v>21.74929727521154</v>
+        <v>21.75145750447885</v>
       </c>
       <c r="G23">
-        <v>2.007591146489613</v>
+        <v>2.047321382313501</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.430018046149989</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.124763455075183</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.27563020456801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.97437081622241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.46507265713345</v>
+        <v>29.41053052578191</v>
       </c>
       <c r="C24">
-        <v>22.26056298690717</v>
+        <v>22.52351586716033</v>
       </c>
       <c r="D24">
-        <v>4.091082370915124</v>
+        <v>4.786763194111646</v>
       </c>
       <c r="E24">
-        <v>37.14163760331674</v>
+        <v>35.06520157565711</v>
       </c>
       <c r="F24">
-        <v>19.96094120223439</v>
+        <v>20.60081722598498</v>
       </c>
       <c r="G24">
-        <v>2.020045447546533</v>
+        <v>2.055542008347234</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.002604939480796</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.79065573902421</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.13133575723807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.41479316140643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.59528256260786</v>
+        <v>26.68629855093528</v>
       </c>
       <c r="C25">
-        <v>20.28516814104458</v>
+        <v>20.61659098146711</v>
       </c>
       <c r="D25">
-        <v>3.876297461711919</v>
+        <v>4.543036311527937</v>
       </c>
       <c r="E25">
-        <v>33.1860734708765</v>
+        <v>31.81296454054986</v>
       </c>
       <c r="F25">
-        <v>18.39326957451287</v>
+        <v>19.36590674883738</v>
       </c>
       <c r="G25">
-        <v>2.033653362898404</v>
+        <v>2.064667127147425</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.52510738843625</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.422478011629868</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.34113048339287</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.85062811068665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_11_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_11_1/res_line/loading_percent.xlsx
@@ -427,28 +427,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49266632314295</v>
+        <v>21.24434529525963</v>
       </c>
       <c r="C2">
-        <v>18.96828366782543</v>
+        <v>15.98798310421177</v>
       </c>
       <c r="D2">
-        <v>4.333588960490924</v>
+        <v>3.901488561645881</v>
       </c>
       <c r="E2">
-        <v>29.21382029618269</v>
+        <v>29.33630424589722</v>
       </c>
       <c r="F2">
-        <v>18.59124872237463</v>
+        <v>21.19244645375618</v>
       </c>
       <c r="G2">
-        <v>2.071584505415577</v>
+        <v>2.068328951829761</v>
       </c>
       <c r="H2">
-        <v>3.159216038339132</v>
+        <v>3.23582982603127</v>
       </c>
       <c r="I2">
-        <v>3.138252493947185</v>
+        <v>3.346455671044311</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>11.7678710571247</v>
       </c>
       <c r="Q2">
-        <v>14.5687144452271</v>
+        <v>16.6519096887458</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.88573587628169</v>
+        <v>19.83404491452785</v>
       </c>
       <c r="C3">
-        <v>17.85725570160992</v>
+        <v>15.06083541376267</v>
       </c>
       <c r="D3">
-        <v>4.196859081625459</v>
+        <v>3.796144748385419</v>
       </c>
       <c r="E3">
-        <v>27.32102133038484</v>
+        <v>27.45330212399358</v>
       </c>
       <c r="F3">
-        <v>18.00587086705919</v>
+        <v>20.3309374745291</v>
       </c>
       <c r="G3">
-        <v>2.076468730828436</v>
+        <v>2.07297968463036</v>
       </c>
       <c r="H3">
-        <v>2.90028629522092</v>
+        <v>2.982130108109396</v>
       </c>
       <c r="I3">
-        <v>2.942540537153831</v>
+        <v>3.168475253322779</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>11.85923295924826</v>
       </c>
       <c r="Q3">
-        <v>14.3407332244305</v>
+        <v>16.1666207780694</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,28 +533,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83970279736576</v>
+        <v>18.91300103090603</v>
       </c>
       <c r="C4">
-        <v>17.14498019991685</v>
+        <v>14.46560476936423</v>
       </c>
       <c r="D4">
-        <v>4.110482788901874</v>
+        <v>3.729274292747749</v>
       </c>
       <c r="E4">
-        <v>26.09414241005118</v>
+        <v>26.23278851326196</v>
       </c>
       <c r="F4">
-        <v>17.64924845131027</v>
+        <v>19.792866582613</v>
       </c>
       <c r="G4">
-        <v>2.07955589531849</v>
+        <v>2.07592495572274</v>
       </c>
       <c r="H4">
-        <v>2.735997085624268</v>
+        <v>2.820997640627038</v>
       </c>
       <c r="I4">
-        <v>2.819518945045894</v>
+        <v>3.056221160496542</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>11.91791939148089</v>
       </c>
       <c r="Q4">
-        <v>14.2082728333152</v>
+        <v>15.86810596097616</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,28 +586,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.39827057864807</v>
+        <v>18.51737395584194</v>
       </c>
       <c r="C5">
-        <v>16.86313572588381</v>
+        <v>14.22662462568218</v>
       </c>
       <c r="D5">
-        <v>4.076836119671445</v>
+        <v>3.702647104088578</v>
       </c>
       <c r="E5">
-        <v>25.57764346556439</v>
+        <v>25.71893596989928</v>
       </c>
       <c r="F5">
-        <v>17.49084442949468</v>
+        <v>19.56228696292059</v>
       </c>
       <c r="G5">
-        <v>2.080842831687721</v>
+        <v>2.077155587032032</v>
       </c>
       <c r="H5">
-        <v>2.667542724177149</v>
+        <v>2.75378960930067</v>
       </c>
       <c r="I5">
-        <v>2.769161091993968</v>
+        <v>3.010004753504221</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>11.943404496475</v>
       </c>
       <c r="Q5">
-        <v>14.14526399565041</v>
+        <v>15.73893713464746</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,28 +639,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.32384007689132</v>
+        <v>18.44304980382731</v>
       </c>
       <c r="C6">
-        <v>16.8353225505169</v>
+        <v>14.198826641894</v>
       </c>
       <c r="D6">
-        <v>4.073836145152685</v>
+        <v>3.699614661890565</v>
       </c>
       <c r="E6">
-        <v>25.49061016046219</v>
+        <v>25.63228342230575</v>
       </c>
       <c r="F6">
-        <v>17.44754621655228</v>
+        <v>19.51249521288196</v>
       </c>
       <c r="G6">
-        <v>2.081065407239584</v>
+        <v>2.077370327591373</v>
       </c>
       <c r="H6">
-        <v>2.655917759783867</v>
+        <v>2.742335900622129</v>
       </c>
       <c r="I6">
-        <v>2.761577121908168</v>
+        <v>3.002823975041709</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>11.94882197734478</v>
       </c>
       <c r="Q6">
-        <v>14.12160564649061</v>
+        <v>15.70830475881949</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,28 +692,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.83321247646425</v>
+        <v>18.88696306560646</v>
       </c>
       <c r="C7">
-        <v>17.19321626836599</v>
+        <v>14.49524762205506</v>
       </c>
       <c r="D7">
-        <v>4.117147111988736</v>
+        <v>3.732781708952662</v>
       </c>
       <c r="E7">
-        <v>26.08648815999262</v>
+        <v>26.2249901650297</v>
       </c>
       <c r="F7">
-        <v>17.60102890494004</v>
+        <v>19.75907531799321</v>
       </c>
       <c r="G7">
-        <v>2.079593170369083</v>
+        <v>2.075965619517161</v>
       </c>
       <c r="H7">
-        <v>2.734610986851889</v>
+        <v>2.819531202845754</v>
       </c>
       <c r="I7">
-        <v>2.820713870448712</v>
+        <v>3.056754298870644</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>11.92148074146381</v>
       </c>
       <c r="Q7">
-        <v>14.17126314780701</v>
+        <v>15.841509031171</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,28 +745,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.95016255225594</v>
+        <v>20.74412174701266</v>
       </c>
       <c r="C8">
-        <v>18.65577656276812</v>
+        <v>15.71431410343474</v>
       </c>
       <c r="D8">
-        <v>4.296175493917771</v>
+        <v>3.870664877140791</v>
       </c>
       <c r="E8">
-        <v>28.57366895627258</v>
+        <v>28.69922864952596</v>
       </c>
       <c r="F8">
-        <v>18.33033639464374</v>
+        <v>20.85879796876124</v>
       </c>
       <c r="G8">
-        <v>2.073275125169522</v>
+        <v>2.069944485621055</v>
       </c>
       <c r="H8">
-        <v>3.070445310790362</v>
+        <v>3.14873931336443</v>
       </c>
       <c r="I8">
-        <v>3.073227600650782</v>
+        <v>3.286764084671139</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>11.80347848797396</v>
       </c>
       <c r="Q8">
-        <v>14.44169348795232</v>
+        <v>16.45301393072154</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.63402988064382</v>
+        <v>23.9847716862231</v>
       </c>
       <c r="C9">
-        <v>21.197725204966</v>
+        <v>17.84333741212275</v>
       </c>
       <c r="D9">
-        <v>4.614753228655371</v>
+        <v>4.116343728166592</v>
       </c>
       <c r="E9">
-        <v>32.94140957282742</v>
+        <v>33.04398820311501</v>
       </c>
       <c r="F9">
-        <v>19.85430217178764</v>
+        <v>22.98345331535855</v>
       </c>
       <c r="G9">
-        <v>2.06152701904097</v>
+        <v>2.058785775659262</v>
       </c>
       <c r="H9">
-        <v>3.688970248645137</v>
+        <v>3.753920340167167</v>
       </c>
       <c r="I9">
-        <v>3.5447492924246</v>
+        <v>3.714043418242903</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>11.58678339590977</v>
       </c>
       <c r="Q9">
-        <v>15.09616439954949</v>
+        <v>17.68518224625051</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,28 +851,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.05482127450283</v>
+        <v>26.03871136407511</v>
       </c>
       <c r="C10">
-        <v>22.928038186333</v>
+        <v>19.23416383004324</v>
       </c>
       <c r="D10">
-        <v>4.874742813704069</v>
+        <v>4.311185115942086</v>
       </c>
       <c r="E10">
-        <v>34.9646762972166</v>
+        <v>35.05051666660535</v>
       </c>
       <c r="F10">
-        <v>20.76645788651782</v>
+        <v>24.32600997702151</v>
       </c>
       <c r="G10">
-        <v>2.053507625778628</v>
+        <v>2.051226890993335</v>
       </c>
       <c r="H10">
-        <v>4.0828560900355</v>
+        <v>4.137073897476883</v>
       </c>
       <c r="I10">
-        <v>3.872324092016694</v>
+        <v>4.007321852824707</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>11.46189746524951</v>
       </c>
       <c r="Q10">
-        <v>15.44422833104606</v>
+        <v>18.44890189708534</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,28 +904,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.06280360374938</v>
+        <v>26.39814353220931</v>
       </c>
       <c r="C11">
-        <v>23.67909720321394</v>
+        <v>19.39037959456375</v>
       </c>
       <c r="D11">
-        <v>5.319755378876647</v>
+        <v>4.617656838781644</v>
       </c>
       <c r="E11">
-        <v>28.3645749766292</v>
+        <v>28.4413378963673</v>
       </c>
       <c r="F11">
-        <v>19.49143900051977</v>
+        <v>23.65465203734853</v>
       </c>
       <c r="G11">
-        <v>2.051789214662098</v>
+        <v>2.0498429246093</v>
       </c>
       <c r="H11">
-        <v>4.451631542486619</v>
+        <v>4.492300152688726</v>
       </c>
       <c r="I11">
-        <v>3.959039045160723</v>
+        <v>4.071110765071338</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>11.58943319410997</v>
       </c>
       <c r="Q11">
-        <v>14.22126316644512</v>
+        <v>17.73242486140492</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,28 +957,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.42548808711483</v>
+        <v>26.31017654352046</v>
       </c>
       <c r="C12">
-        <v>23.9023462235017</v>
+        <v>19.20337017689211</v>
       </c>
       <c r="D12">
-        <v>5.642827013362487</v>
+        <v>4.838017044454928</v>
       </c>
       <c r="E12">
-        <v>22.41126104158498</v>
+        <v>22.48597269447575</v>
       </c>
       <c r="F12">
-        <v>18.26442248682248</v>
+        <v>22.83200781241673</v>
       </c>
       <c r="G12">
-        <v>2.051750605528799</v>
+        <v>2.050003634790813</v>
       </c>
       <c r="H12">
-        <v>5.267815255078704</v>
+        <v>5.297414652992155</v>
       </c>
       <c r="I12">
-        <v>3.968982522168912</v>
+        <v>4.068682360689743</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>11.72926721177756</v>
       </c>
       <c r="Q12">
-        <v>13.1551535732224</v>
+        <v>16.98624232278696</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,28 +1010,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32574147658034</v>
+        <v>25.84726470326447</v>
       </c>
       <c r="C13">
-        <v>23.8023350085204</v>
+        <v>18.77667581959529</v>
       </c>
       <c r="D13">
-        <v>5.904668838461662</v>
+        <v>5.01237998862362</v>
       </c>
       <c r="E13">
-        <v>16.48110235038558</v>
+        <v>16.56201812557444</v>
       </c>
       <c r="F13">
-        <v>16.90881854901085</v>
+        <v>21.78085996614549</v>
       </c>
       <c r="G13">
-        <v>2.053024761394272</v>
+        <v>2.051387570047776</v>
       </c>
       <c r="H13">
-        <v>6.295261935674344</v>
+        <v>6.317432706305129</v>
       </c>
       <c r="I13">
-        <v>3.922986396371375</v>
+        <v>4.017252459079821</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1052,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>11.88680967195127</v>
       </c>
       <c r="Q13">
-        <v>12.08345473812526</v>
+        <v>16.12346427244232</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.04587492091814</v>
+        <v>25.34308545040505</v>
       </c>
       <c r="C14">
-        <v>23.59796749859168</v>
+        <v>18.37350547551109</v>
       </c>
       <c r="D14">
-        <v>6.064911838226821</v>
+        <v>5.116182715614461</v>
       </c>
       <c r="E14">
-        <v>12.39948689670872</v>
+        <v>12.49264091669018</v>
       </c>
       <c r="F14">
-        <v>15.87950193874549</v>
+        <v>20.92278044868427</v>
       </c>
       <c r="G14">
-        <v>2.054486513402981</v>
+        <v>2.052888961639587</v>
       </c>
       <c r="H14">
-        <v>7.098170924744764</v>
+        <v>7.116731744846066</v>
       </c>
       <c r="I14">
-        <v>3.867096236766066</v>
+        <v>3.960504999053573</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>12.00576682982438</v>
       </c>
       <c r="Q14">
-        <v>11.32485027251851</v>
+        <v>15.45461220619254</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,28 +1116,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.8771560147254</v>
+        <v>25.13125716500807</v>
       </c>
       <c r="C15">
-        <v>23.49405501822589</v>
+        <v>18.23190355643588</v>
       </c>
       <c r="D15">
-        <v>6.093011043100423</v>
+        <v>5.132674718159113</v>
       </c>
       <c r="E15">
-        <v>11.41723285621635</v>
+        <v>11.51593739001252</v>
       </c>
       <c r="F15">
-        <v>15.5867530759949</v>
+        <v>20.65438187367861</v>
       </c>
       <c r="G15">
-        <v>2.055159410205087</v>
+        <v>2.053551800275636</v>
       </c>
       <c r="H15">
-        <v>7.282752320104646</v>
+        <v>7.300747388952847</v>
       </c>
       <c r="I15">
-        <v>3.841502725540322</v>
+        <v>3.9361343313207</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>12.0386306197751</v>
       </c>
       <c r="Q15">
-        <v>11.1299896727916</v>
+        <v>15.25954650730678</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,28 +1169,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.90608954675489</v>
+        <v>24.34195033592232</v>
       </c>
       <c r="C16">
-        <v>22.82702198544147</v>
+        <v>17.73640174565618</v>
       </c>
       <c r="D16">
-        <v>5.945605588702913</v>
+        <v>5.022720057685066</v>
       </c>
       <c r="E16">
-        <v>11.28027543478703</v>
+        <v>11.39309845988134</v>
       </c>
       <c r="F16">
-        <v>15.37602402775759</v>
+        <v>20.22206244717581</v>
       </c>
       <c r="G16">
-        <v>2.058301267800048</v>
+        <v>2.056465447626719</v>
       </c>
       <c r="H16">
-        <v>7.001793318481235</v>
+        <v>7.02225748233182</v>
       </c>
       <c r="I16">
-        <v>3.713436795145757</v>
+        <v>3.824142457375225</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>12.04649673184934</v>
       </c>
       <c r="Q16">
-        <v>11.15774339611703</v>
+        <v>15.06049289056866</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,28 +1222,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.29981657985098</v>
+        <v>24.00371943281733</v>
       </c>
       <c r="C17">
-        <v>22.41983437938699</v>
+        <v>17.57351854959033</v>
       </c>
       <c r="D17">
-        <v>5.742303216938881</v>
+        <v>4.880251754739056</v>
       </c>
       <c r="E17">
-        <v>13.38635553275821</v>
+        <v>13.4979010985307</v>
       </c>
       <c r="F17">
-        <v>15.7802112669253</v>
+        <v>20.36296271496995</v>
       </c>
       <c r="G17">
-        <v>2.059961030497345</v>
+        <v>2.057930077344666</v>
       </c>
       <c r="H17">
-        <v>6.307931783648366</v>
+        <v>6.332660876888924</v>
       </c>
       <c r="I17">
-        <v>3.644269112860384</v>
+        <v>3.767659763510585</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>11.99182856646824</v>
       </c>
       <c r="Q17">
-        <v>11.58299135364639</v>
+        <v>15.27309957087339</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,28 +1275,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95452436606275</v>
+        <v>24.044348790412</v>
       </c>
       <c r="C18">
-        <v>22.16444665626625</v>
+        <v>17.66693945972051</v>
       </c>
       <c r="D18">
-        <v>5.465780429740172</v>
+        <v>4.693155499359199</v>
       </c>
       <c r="E18">
-        <v>17.95867208990727</v>
+        <v>18.0617373087299</v>
       </c>
       <c r="F18">
-        <v>16.78554409291046</v>
+        <v>21.03231258682181</v>
       </c>
       <c r="G18">
-        <v>2.060395421184307</v>
+        <v>2.058178860574236</v>
       </c>
       <c r="H18">
-        <v>5.266155076833628</v>
+        <v>5.299013535784304</v>
       </c>
       <c r="I18">
-        <v>3.619276282305147</v>
+        <v>3.754025291857811</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>11.87671840079358</v>
       </c>
       <c r="Q18">
-        <v>12.42595252609114</v>
+        <v>15.87749421297165</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,28 +1328,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.85164769548753</v>
+        <v>24.35879215894935</v>
       </c>
       <c r="C19">
-        <v>22.13903500602907</v>
+        <v>18.01543152623328</v>
       </c>
       <c r="D19">
-        <v>5.173506130908312</v>
+        <v>4.497482009348721</v>
       </c>
       <c r="E19">
-        <v>24.24597306498533</v>
+        <v>24.34212166184587</v>
       </c>
       <c r="F19">
-        <v>18.11461374072026</v>
+        <v>22.01514394023083</v>
       </c>
       <c r="G19">
-        <v>2.059659617645809</v>
+        <v>2.057304220750735</v>
       </c>
       <c r="H19">
-        <v>4.278060908810593</v>
+        <v>4.323344623511946</v>
       </c>
       <c r="I19">
-        <v>3.643304718169249</v>
+        <v>3.785884445289801</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>11.73771417547752</v>
       </c>
       <c r="Q19">
-        <v>13.49383433671839</v>
+        <v>16.70409758324919</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,28 +1381,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.43636915149335</v>
+        <v>25.46361636489998</v>
       </c>
       <c r="C20">
-        <v>22.61293314624111</v>
+        <v>18.95625835189501</v>
       </c>
       <c r="D20">
-        <v>4.829660403423384</v>
+        <v>4.273331612968068</v>
       </c>
       <c r="E20">
-        <v>34.40385939798826</v>
+        <v>34.4935351717964</v>
       </c>
       <c r="F20">
-        <v>20.3946872154569</v>
+        <v>23.8909754692182</v>
       </c>
       <c r="G20">
-        <v>2.0556477065682</v>
+        <v>2.053260626197614</v>
       </c>
       <c r="H20">
-        <v>3.977166495449919</v>
+        <v>4.03386592142914</v>
       </c>
       <c r="I20">
-        <v>3.792827574933824</v>
+        <v>3.935342292896853</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>11.50748466950926</v>
       </c>
       <c r="Q20">
-        <v>15.24019517860266</v>
+        <v>18.17589669579615</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,28 +1434,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.2128873691445</v>
+        <v>27.06302406206178</v>
       </c>
       <c r="C21">
-        <v>23.87180592760401</v>
+        <v>20.05080150246729</v>
       </c>
       <c r="D21">
-        <v>4.963924874935277</v>
+        <v>4.378876214376258</v>
       </c>
       <c r="E21">
-        <v>37.23156527326921</v>
+        <v>37.30861685159484</v>
       </c>
       <c r="F21">
-        <v>21.41888838623526</v>
+        <v>25.14104151860499</v>
       </c>
       <c r="G21">
-        <v>2.049227471009077</v>
+        <v>2.047180558833289</v>
       </c>
       <c r="H21">
-        <v>4.331854164063795</v>
+        <v>4.380770126744784</v>
       </c>
       <c r="I21">
-        <v>4.05173183932555</v>
+        <v>4.169007924582534</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>11.38581223215721</v>
       </c>
       <c r="Q21">
-        <v>15.78587279155189</v>
+        <v>18.95822593577839</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,28 +1487,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.32256361032284</v>
+        <v>28.05083845722103</v>
       </c>
       <c r="C22">
-        <v>24.6138801197208</v>
+        <v>20.6820002794959</v>
       </c>
       <c r="D22">
-        <v>5.059435747161129</v>
+        <v>4.453456234324586</v>
       </c>
       <c r="E22">
-        <v>38.57128553915183</v>
+        <v>38.6401310496351</v>
       </c>
       <c r="F22">
-        <v>22.03675548966449</v>
+        <v>25.90144730192458</v>
       </c>
       <c r="G22">
-        <v>2.045186385304464</v>
+        <v>2.043365079700162</v>
       </c>
       <c r="H22">
-        <v>4.540833089149837</v>
+        <v>4.584481656539372</v>
       </c>
       <c r="I22">
-        <v>4.212966268023601</v>
+        <v>4.313709910463947</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>11.31264952474652</v>
       </c>
       <c r="Q22">
-        <v>16.11096486298121</v>
+        <v>19.43138575637101</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.73534804202202</v>
+        <v>27.54557798507469</v>
       </c>
       <c r="C23">
-        <v>24.17410756943924</v>
+        <v>20.3181632356919</v>
       </c>
       <c r="D23">
-        <v>5.001185173529103</v>
+        <v>4.409673853925127</v>
       </c>
       <c r="E23">
-        <v>37.86180514530616</v>
+        <v>37.93528199551817</v>
       </c>
       <c r="F23">
-        <v>21.75145750447885</v>
+        <v>25.52562432809528</v>
       </c>
       <c r="G23">
-        <v>2.047321382313501</v>
+        <v>2.045373237940637</v>
       </c>
       <c r="H23">
-        <v>4.430018046149989</v>
+        <v>4.476635571788233</v>
       </c>
       <c r="I23">
-        <v>4.124763455075183</v>
+        <v>4.234884081058053</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>11.34622501537988</v>
       </c>
       <c r="Q23">
-        <v>15.97437081622241</v>
+        <v>19.20377684041285</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,28 +1593,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.41053052578191</v>
+        <v>25.51262758496888</v>
       </c>
       <c r="C24">
-        <v>22.52351586716033</v>
+        <v>18.93701595186494</v>
       </c>
       <c r="D24">
-        <v>4.786763194111646</v>
+        <v>4.245717152561948</v>
       </c>
       <c r="E24">
-        <v>35.06520157565711</v>
+        <v>35.15552401392027</v>
       </c>
       <c r="F24">
-        <v>20.60081722598498</v>
+        <v>24.03099774490324</v>
       </c>
       <c r="G24">
-        <v>2.055542008347234</v>
+        <v>2.053131939213595</v>
       </c>
       <c r="H24">
-        <v>4.002604939480796</v>
+        <v>4.059945008673057</v>
       </c>
       <c r="I24">
-        <v>3.79065573902421</v>
+        <v>3.934995918583402</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>11.48737804446741</v>
       </c>
       <c r="Q24">
-        <v>15.41479316140643</v>
+        <v>18.29734762139054</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,28 +1646,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.68629855093528</v>
+        <v>23.12287659847034</v>
       </c>
       <c r="C25">
-        <v>20.61659098146711</v>
+        <v>17.3406112688562</v>
       </c>
       <c r="D25">
-        <v>4.543036311527937</v>
+        <v>4.058593364205172</v>
       </c>
       <c r="E25">
-        <v>31.81296454054986</v>
+        <v>31.92129429900232</v>
       </c>
       <c r="F25">
-        <v>19.36590674883738</v>
+        <v>22.36976730959418</v>
       </c>
       <c r="G25">
-        <v>2.064667127147425</v>
+        <v>2.061772739636632</v>
       </c>
       <c r="H25">
-        <v>3.52510738843625</v>
+        <v>3.593540973059603</v>
       </c>
       <c r="I25">
-        <v>3.422478011629868</v>
+        <v>3.602901949824975</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>11.65009461266547</v>
       </c>
       <c r="Q25">
-        <v>14.85062811068665</v>
+        <v>17.31236120644557</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_11_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_11_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.24434529525963</v>
+        <v>12.75967363458949</v>
       </c>
       <c r="C2">
-        <v>15.98798310421177</v>
+        <v>7.980588695190992</v>
       </c>
       <c r="D2">
-        <v>3.901488561645881</v>
+        <v>5.81384530274089</v>
       </c>
       <c r="E2">
-        <v>29.33630424589722</v>
+        <v>8.04521221469914</v>
       </c>
       <c r="F2">
-        <v>21.19244645375618</v>
+        <v>22.05359336829178</v>
       </c>
       <c r="G2">
-        <v>2.068328951829761</v>
+        <v>24.49219020586429</v>
       </c>
       <c r="H2">
-        <v>3.23582982603127</v>
+        <v>3.328855662189871</v>
       </c>
       <c r="I2">
-        <v>3.346455671044311</v>
+        <v>3.869492431539229</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.1614203918788</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.59201043641276</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.511182504892949</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.156746845600926</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.02130775338981</v>
       </c>
       <c r="P2">
-        <v>11.7678710571247</v>
+        <v>6.415816117515534</v>
       </c>
       <c r="Q2">
-        <v>16.6519096887458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.528681072492107</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.41063488756413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.83404491452785</v>
+        <v>11.94109238542236</v>
       </c>
       <c r="C3">
-        <v>15.06083541376267</v>
+        <v>7.829241502523265</v>
       </c>
       <c r="D3">
-        <v>3.796144748385419</v>
+        <v>5.633520242853378</v>
       </c>
       <c r="E3">
-        <v>27.45330212399358</v>
+        <v>7.96507032969734</v>
       </c>
       <c r="F3">
-        <v>20.3309374745291</v>
+        <v>21.99819662142639</v>
       </c>
       <c r="G3">
-        <v>2.07297968463036</v>
+        <v>24.53060400745472</v>
       </c>
       <c r="H3">
-        <v>2.982130108109396</v>
+        <v>3.495699949252826</v>
       </c>
       <c r="I3">
-        <v>3.168475253322779</v>
+        <v>3.998205906674061</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.18703502246221</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.71231517530806</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.750933145224903</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.13657639363121</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.46370864893308</v>
       </c>
       <c r="P3">
-        <v>11.85923295924826</v>
+        <v>6.287028614588405</v>
       </c>
       <c r="Q3">
-        <v>16.1666207780694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.158462804852126</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.48082892688755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91300103090603</v>
+        <v>11.40706804323718</v>
       </c>
       <c r="C4">
-        <v>14.46560476936423</v>
+        <v>7.735389460316988</v>
       </c>
       <c r="D4">
-        <v>3.729274292747749</v>
+        <v>5.521003767280533</v>
       </c>
       <c r="E4">
-        <v>26.23278851326196</v>
+        <v>7.915011599446435</v>
       </c>
       <c r="F4">
-        <v>19.792866582613</v>
+        <v>21.97074433956811</v>
       </c>
       <c r="G4">
-        <v>2.07592495572274</v>
+        <v>24.56665987738142</v>
       </c>
       <c r="H4">
-        <v>2.820997640627038</v>
+        <v>3.602072742284874</v>
       </c>
       <c r="I4">
-        <v>3.056221160496542</v>
+        <v>4.081085378409428</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.20394441328653</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.78941948842354</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.93892725471526</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.123506967736276</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.10537531061371</v>
       </c>
       <c r="P4">
-        <v>11.91791939148089</v>
+        <v>6.207468166592747</v>
       </c>
       <c r="Q4">
-        <v>15.86810596097616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.923972273862303</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.5287094031772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.51737395584194</v>
+        <v>11.17909836040889</v>
       </c>
       <c r="C5">
-        <v>14.22662462568218</v>
+        <v>7.700771337469487</v>
       </c>
       <c r="D5">
-        <v>3.702647104088578</v>
+        <v>5.475377217493421</v>
       </c>
       <c r="E5">
-        <v>25.71893596989928</v>
+        <v>7.893375813963815</v>
       </c>
       <c r="F5">
-        <v>19.56228696292059</v>
+        <v>21.95479135910228</v>
       </c>
       <c r="G5">
-        <v>2.077155587032032</v>
+        <v>24.57404545319283</v>
       </c>
       <c r="H5">
-        <v>2.75378960930067</v>
+        <v>3.646702975938769</v>
       </c>
       <c r="I5">
-        <v>3.010004753504221</v>
+        <v>4.118580953322694</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.2093219710519</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.81725348888898</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.025357396590785</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.117615948652499</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.957062682404199</v>
       </c>
       <c r="P5">
-        <v>11.943404496475</v>
+        <v>6.176323946674837</v>
       </c>
       <c r="Q5">
-        <v>15.73893713464746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.827143848779901</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.54510391358229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44304980382731</v>
+        <v>11.13777676310363</v>
       </c>
       <c r="C6">
-        <v>14.198826641894</v>
+        <v>7.699755845408555</v>
       </c>
       <c r="D6">
-        <v>3.699614661890565</v>
+        <v>5.468531544840418</v>
       </c>
       <c r="E6">
-        <v>25.63228342230575</v>
+        <v>7.888511226037949</v>
       </c>
       <c r="F6">
-        <v>19.51249521288196</v>
+        <v>21.94442163393994</v>
       </c>
       <c r="G6">
-        <v>2.077370327591373</v>
+        <v>24.56280843388798</v>
       </c>
       <c r="H6">
-        <v>2.742335900622129</v>
+        <v>3.65452028119096</v>
       </c>
       <c r="I6">
-        <v>3.002823975041709</v>
+        <v>4.128387201973973</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.20802156727247</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.81655969124628</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.040288911020202</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.116149741860326</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.934196234211971</v>
       </c>
       <c r="P6">
-        <v>11.94882197734478</v>
+        <v>6.172827707319799</v>
       </c>
       <c r="Q6">
-        <v>15.70830475881949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.811476702998283</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.54264873885244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88696306560646</v>
+        <v>11.39648123678352</v>
       </c>
       <c r="C7">
-        <v>14.49524762205506</v>
+        <v>7.745870486522787</v>
       </c>
       <c r="D7">
-        <v>3.732781708952662</v>
+        <v>5.525578816075054</v>
       </c>
       <c r="E7">
-        <v>26.2249901650297</v>
+        <v>7.911578953912164</v>
       </c>
       <c r="F7">
-        <v>19.75907531799321</v>
+        <v>21.93805695772526</v>
       </c>
       <c r="G7">
-        <v>2.075965619517161</v>
+        <v>24.58680547575692</v>
       </c>
       <c r="H7">
-        <v>2.819531202845754</v>
+        <v>3.604091627571382</v>
       </c>
       <c r="I7">
-        <v>3.056754298870644</v>
+        <v>4.091354266171857</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.17064720091392</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.76948463300325</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.940053715285803</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.121772042793862</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.10781764647802</v>
       </c>
       <c r="P7">
-        <v>11.92148074146381</v>
+        <v>6.211671510196946</v>
       </c>
       <c r="Q7">
-        <v>15.841509031171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.92445661949843</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.50663539833355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.74412174701266</v>
+        <v>12.4755246010505</v>
       </c>
       <c r="C8">
-        <v>15.71431410343474</v>
+        <v>7.939338389462377</v>
       </c>
       <c r="D8">
-        <v>3.870664877140791</v>
+        <v>5.764799572998964</v>
       </c>
       <c r="E8">
-        <v>28.69922864952596</v>
+        <v>8.014367330099811</v>
       </c>
       <c r="F8">
-        <v>20.85879796876124</v>
+        <v>21.96845799847826</v>
       </c>
       <c r="G8">
-        <v>2.069944485621055</v>
+        <v>24.64160144325835</v>
       </c>
       <c r="H8">
-        <v>3.14873931336443</v>
+        <v>3.388233223857353</v>
       </c>
       <c r="I8">
-        <v>3.286764084671139</v>
+        <v>3.92626269434798</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.07268406860105</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.59486489944128</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.585134480934101</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.147169340018166</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.83629373688095</v>
       </c>
       <c r="P8">
-        <v>11.80347848797396</v>
+        <v>6.377639901118402</v>
       </c>
       <c r="Q8">
-        <v>16.45301393072154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.405554322691557</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.38858837970163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.9847716862231</v>
+        <v>14.3539628546579</v>
       </c>
       <c r="C9">
-        <v>17.84333741212275</v>
+        <v>8.295483427827753</v>
       </c>
       <c r="D9">
-        <v>4.116343728166592</v>
+        <v>6.202024143051635</v>
       </c>
       <c r="E9">
-        <v>33.04398820311501</v>
+        <v>8.213708722462284</v>
       </c>
       <c r="F9">
-        <v>22.98345331535855</v>
+        <v>22.15943525430286</v>
       </c>
       <c r="G9">
-        <v>2.058785775659262</v>
+        <v>24.7126339036015</v>
       </c>
       <c r="H9">
-        <v>3.753920340167167</v>
+        <v>2.99232939303604</v>
       </c>
       <c r="I9">
-        <v>3.714043418242903</v>
+        <v>3.615906368008388</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.996976360411544</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.32497379097879</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.229160852902311</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.195100454562208</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.12930185846977</v>
       </c>
       <c r="P9">
-        <v>11.58678339590977</v>
+        <v>6.6899482970598</v>
       </c>
       <c r="Q9">
-        <v>17.68518224625051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.28388564029737</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.25058966406332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03871136407511</v>
+        <v>15.57792656717951</v>
       </c>
       <c r="C10">
-        <v>19.23416383004324</v>
+        <v>8.571706162775488</v>
       </c>
       <c r="D10">
-        <v>4.311185115942086</v>
+        <v>6.492244855213134</v>
       </c>
       <c r="E10">
-        <v>35.05051666660535</v>
+        <v>8.293065669668589</v>
       </c>
       <c r="F10">
-        <v>24.32600997702151</v>
+        <v>22.15502232943698</v>
       </c>
       <c r="G10">
-        <v>2.051226890993335</v>
+        <v>25.0044470479129</v>
       </c>
       <c r="H10">
-        <v>4.137073897476883</v>
+        <v>2.746010904116197</v>
       </c>
       <c r="I10">
-        <v>4.007321852824707</v>
+        <v>3.417314523952992</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.772554500318924</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.05295986766044</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.190265337889115</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.215108108021659</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.00697877597641</v>
       </c>
       <c r="P10">
-        <v>11.46189746524951</v>
+        <v>6.857675871700852</v>
       </c>
       <c r="Q10">
-        <v>18.44890189708534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.84337868993184</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.0634546411835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.39814353220931</v>
+        <v>16.05956468060028</v>
       </c>
       <c r="C11">
-        <v>19.39037959456375</v>
+        <v>8.915108880741021</v>
       </c>
       <c r="D11">
-        <v>4.617656838781644</v>
+        <v>6.350992051314987</v>
       </c>
       <c r="E11">
-        <v>28.4413378963673</v>
+        <v>7.837145329715692</v>
       </c>
       <c r="F11">
-        <v>23.65465203734853</v>
+        <v>21.12056291762277</v>
       </c>
       <c r="G11">
-        <v>2.0498429246093</v>
+        <v>24.41083285452857</v>
       </c>
       <c r="H11">
-        <v>4.492300152688726</v>
+        <v>3.480858264447807</v>
       </c>
       <c r="I11">
-        <v>4.071110765071338</v>
+        <v>3.38204032634126</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.284311484306192</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.43846405120508</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.221637027891885</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.176638357305245</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.49472431483036</v>
       </c>
       <c r="P11">
-        <v>11.58943319410997</v>
+        <v>6.438648858824419</v>
       </c>
       <c r="Q11">
-        <v>17.73242486140492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.69706295465871</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.38981198746899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.31017654352046</v>
+        <v>16.22662537096316</v>
       </c>
       <c r="C12">
-        <v>19.20337017689211</v>
+        <v>9.152329153960105</v>
       </c>
       <c r="D12">
-        <v>4.838017044454928</v>
+        <v>6.154535040811705</v>
       </c>
       <c r="E12">
-        <v>22.48597269447575</v>
+        <v>7.518468913448071</v>
       </c>
       <c r="F12">
-        <v>22.83200781241673</v>
+        <v>20.32309524772376</v>
       </c>
       <c r="G12">
-        <v>2.050003634790813</v>
+        <v>23.66865739855577</v>
       </c>
       <c r="H12">
-        <v>5.297414652992155</v>
+        <v>4.662495049271985</v>
       </c>
       <c r="I12">
-        <v>4.068682360689743</v>
+        <v>3.372547808359472</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.053007285366526</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.04097636650561</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.240436694412043</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.197337022591818</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.72557523369533</v>
       </c>
       <c r="P12">
-        <v>11.72926721177756</v>
+        <v>6.061935562946339</v>
       </c>
       <c r="Q12">
-        <v>16.98624232278696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.44849156112605</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.91883073857202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.84726470326447</v>
+        <v>16.15728841747761</v>
       </c>
       <c r="C13">
-        <v>18.77667581959529</v>
+        <v>9.346564655688324</v>
       </c>
       <c r="D13">
-        <v>5.01237998862362</v>
+        <v>5.896285652987348</v>
       </c>
       <c r="E13">
-        <v>16.56201812557444</v>
+        <v>7.291417296402017</v>
       </c>
       <c r="F13">
-        <v>21.78085996614549</v>
+        <v>19.64925907539808</v>
       </c>
       <c r="G13">
-        <v>2.051387570047776</v>
+        <v>22.57289580116881</v>
       </c>
       <c r="H13">
-        <v>6.317432706305129</v>
+        <v>5.972499858006597</v>
       </c>
       <c r="I13">
-        <v>4.017252459079821</v>
+        <v>3.397016041200388</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.982836823451082</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.77221269522067</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.236083730609767</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.259304395540283</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.78706366152194</v>
       </c>
       <c r="P13">
-        <v>11.88680967195127</v>
+        <v>5.703129615488146</v>
       </c>
       <c r="Q13">
-        <v>16.12346427244232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.10176472427684</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.56859869874759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.34308545040505</v>
+        <v>15.99910051426731</v>
       </c>
       <c r="C14">
-        <v>18.37350547551109</v>
+        <v>9.470356921193765</v>
       </c>
       <c r="D14">
-        <v>5.116182715614461</v>
+        <v>5.687082257077166</v>
       </c>
       <c r="E14">
-        <v>12.49264091669018</v>
+        <v>7.192089799708444</v>
       </c>
       <c r="F14">
-        <v>20.92278044868427</v>
+        <v>19.22885953162245</v>
       </c>
       <c r="G14">
-        <v>2.052888961639587</v>
+        <v>21.67098483376887</v>
       </c>
       <c r="H14">
-        <v>7.116731744846066</v>
+        <v>6.928369390256141</v>
       </c>
       <c r="I14">
-        <v>3.960504999053573</v>
+        <v>3.432535424515492</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.987846490743426</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.63982847250188</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.223046277841992</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.326008334271021</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.75557782228845</v>
       </c>
       <c r="P14">
-        <v>12.00576682982438</v>
+        <v>5.468053868720429</v>
       </c>
       <c r="Q14">
-        <v>15.45461220619254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.811465293471471</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.37420320369812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.13125716500807</v>
+        <v>15.90686975771511</v>
       </c>
       <c r="C15">
-        <v>18.23190355643588</v>
+        <v>9.49563055863671</v>
       </c>
       <c r="D15">
-        <v>5.132674718159113</v>
+        <v>5.624552121729941</v>
       </c>
       <c r="E15">
-        <v>11.51593739001252</v>
+        <v>7.176627282797746</v>
       </c>
       <c r="F15">
-        <v>20.65438187367861</v>
+        <v>19.14306693479202</v>
       </c>
       <c r="G15">
-        <v>2.053551800275636</v>
+        <v>21.3914285023967</v>
       </c>
       <c r="H15">
-        <v>7.300747388952847</v>
+        <v>7.153887277375076</v>
       </c>
       <c r="I15">
-        <v>3.9361343313207</v>
+        <v>3.453330156053307</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.011613261964134</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.62658750511181</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.215955209037012</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.343610314288658</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.71292311776066</v>
       </c>
       <c r="P15">
-        <v>12.0386306197751</v>
+        <v>5.413541650769031</v>
       </c>
       <c r="Q15">
-        <v>15.25954650730678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.720400355706699</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.34501234519545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.34195033592232</v>
+        <v>15.41063435185508</v>
       </c>
       <c r="C16">
-        <v>17.73640174565618</v>
+        <v>9.368172282473806</v>
       </c>
       <c r="D16">
-        <v>5.022720057685066</v>
+        <v>5.522590829320271</v>
       </c>
       <c r="E16">
-        <v>11.39309845988134</v>
+        <v>7.187077998737683</v>
       </c>
       <c r="F16">
-        <v>20.22206244717581</v>
+        <v>19.34866273625803</v>
       </c>
       <c r="G16">
-        <v>2.056465447626719</v>
+        <v>21.02737666632287</v>
       </c>
       <c r="H16">
-        <v>7.02225748233182</v>
+        <v>6.974022807732225</v>
       </c>
       <c r="I16">
-        <v>3.824142457375225</v>
+        <v>3.53629517444717</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.241925772280911</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.82296816933943</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.18919409165283</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.316944130756784</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.35323750486697</v>
       </c>
       <c r="P16">
-        <v>12.04649673184934</v>
+        <v>5.411597597200893</v>
       </c>
       <c r="Q16">
-        <v>15.06049289056866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.538293232944259</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.5448242880364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.00371943281733</v>
+        <v>15.10977941152856</v>
       </c>
       <c r="C17">
-        <v>17.57351854959033</v>
+        <v>9.197905659121639</v>
       </c>
       <c r="D17">
-        <v>4.880251754739056</v>
+        <v>5.56179572673099</v>
       </c>
       <c r="E17">
-        <v>13.4979010985307</v>
+        <v>7.236539040922694</v>
       </c>
       <c r="F17">
-        <v>20.36296271496995</v>
+        <v>19.71739555404635</v>
       </c>
       <c r="G17">
-        <v>2.057930077344666</v>
+        <v>21.28407466832529</v>
       </c>
       <c r="H17">
-        <v>6.332660876888924</v>
+        <v>6.30108311518838</v>
       </c>
       <c r="I17">
-        <v>3.767659763510585</v>
+        <v>3.582287130080986</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.415275522552019</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.03958589818345</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.185292690534322</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.257854870125365</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.0882846672835</v>
       </c>
       <c r="P17">
-        <v>11.99182856646824</v>
+        <v>5.532239837965644</v>
       </c>
       <c r="Q17">
-        <v>15.27309957087339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.557399926217155</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.7933190825943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.044348790412</v>
+        <v>14.95549365014786</v>
       </c>
       <c r="C18">
-        <v>17.66693945972051</v>
+        <v>8.969859473337552</v>
       </c>
       <c r="D18">
-        <v>4.693155499359199</v>
+        <v>5.719463886704037</v>
       </c>
       <c r="E18">
-        <v>18.0617373087299</v>
+        <v>7.378303005535257</v>
       </c>
       <c r="F18">
-        <v>21.03231258682181</v>
+        <v>20.31133385500105</v>
       </c>
       <c r="G18">
-        <v>2.058178860574236</v>
+        <v>21.99503080044266</v>
       </c>
       <c r="H18">
-        <v>5.299013535784304</v>
+        <v>5.177788162895609</v>
       </c>
       <c r="I18">
-        <v>3.754025291857811</v>
+        <v>3.589133150081186</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.588981380479366</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.32779078266956</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.187684376799163</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.188813965920761</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.87755489843947</v>
       </c>
       <c r="P18">
-        <v>11.87671840079358</v>
+        <v>5.787728893321686</v>
       </c>
       <c r="Q18">
-        <v>15.87749421297165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.75015974603058</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>15.14225832472292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.35879215894935</v>
+        <v>14.92136528656214</v>
       </c>
       <c r="C19">
-        <v>18.01543152623328</v>
+        <v>8.758188979449228</v>
       </c>
       <c r="D19">
-        <v>4.497482009348721</v>
+        <v>5.960147729679503</v>
       </c>
       <c r="E19">
-        <v>24.34212166184587</v>
+        <v>7.653224302302887</v>
       </c>
       <c r="F19">
-        <v>22.01514394023083</v>
+        <v>21.02998110994961</v>
       </c>
       <c r="G19">
-        <v>2.057304220750735</v>
+        <v>22.93705306157648</v>
       </c>
       <c r="H19">
-        <v>4.323344623511946</v>
+        <v>3.929887391158905</v>
       </c>
       <c r="I19">
-        <v>3.785884445289801</v>
+        <v>3.581388506331121</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.758115955549689</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.6530827542225</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.189292129626605</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.154610242409497</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.73960055632203</v>
       </c>
       <c r="P19">
-        <v>11.73771417547752</v>
+        <v>6.162343796548066</v>
       </c>
       <c r="Q19">
-        <v>16.70409758324919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.06588271096299</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.53957318425316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.46361636489998</v>
+        <v>15.24599807559717</v>
       </c>
       <c r="C20">
-        <v>18.95625835189501</v>
+        <v>8.546801806227112</v>
       </c>
       <c r="D20">
-        <v>4.273331612968068</v>
+        <v>6.410945289999148</v>
       </c>
       <c r="E20">
-        <v>34.4935351717964</v>
+        <v>8.258855674603142</v>
       </c>
       <c r="F20">
-        <v>23.8909754692182</v>
+        <v>22.12498855564397</v>
       </c>
       <c r="G20">
-        <v>2.053260626197614</v>
+        <v>24.60582671353801</v>
       </c>
       <c r="H20">
-        <v>4.03386592142914</v>
+        <v>2.810305776128761</v>
       </c>
       <c r="I20">
-        <v>3.935342292896853</v>
+        <v>3.497995434376556</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.904692552693959</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.09706153134199</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.185228757141232</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.207327750011038</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.79944823155739</v>
       </c>
       <c r="P20">
-        <v>11.50748466950926</v>
+        <v>6.823858079270864</v>
       </c>
       <c r="Q20">
-        <v>18.17589669579615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.69946420758344</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.09365470520543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.06302406206178</v>
+        <v>16.15626467476505</v>
       </c>
       <c r="C21">
-        <v>20.05080150246729</v>
+        <v>8.681154884579048</v>
       </c>
       <c r="D21">
-        <v>4.378876214376258</v>
+        <v>6.732986756612306</v>
       </c>
       <c r="E21">
-        <v>37.30861685159484</v>
+        <v>8.42528172442441</v>
       </c>
       <c r="F21">
-        <v>25.14104151860499</v>
+        <v>22.10521984347243</v>
       </c>
       <c r="G21">
-        <v>2.047180558833289</v>
+        <v>26.22084334277814</v>
       </c>
       <c r="H21">
-        <v>4.380770126744784</v>
+        <v>2.596672545805677</v>
       </c>
       <c r="I21">
-        <v>4.169007924582534</v>
+        <v>3.345510511589531</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.343619003021384</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.8760178188496</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.226689665585314</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.232522287227536</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.41080356237471</v>
       </c>
       <c r="P21">
-        <v>11.38581223215721</v>
+        <v>7.041686455713346</v>
       </c>
       <c r="Q21">
-        <v>18.95822593577839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.19008645597846</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.90766636581172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.05083845722103</v>
+        <v>16.72949082389493</v>
       </c>
       <c r="C22">
-        <v>20.6820002794959</v>
+        <v>8.763419623483216</v>
       </c>
       <c r="D22">
-        <v>4.453456234324586</v>
+        <v>6.923741372741127</v>
       </c>
       <c r="E22">
-        <v>38.6401310496351</v>
+        <v>8.506419589855401</v>
       </c>
       <c r="F22">
-        <v>25.90144730192458</v>
+        <v>22.05268584651022</v>
       </c>
       <c r="G22">
-        <v>2.043365079700162</v>
+        <v>27.40157971766474</v>
       </c>
       <c r="H22">
-        <v>4.584481656539372</v>
+        <v>2.470442705033493</v>
       </c>
       <c r="I22">
-        <v>4.313709910463947</v>
+        <v>3.237973269476323</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.014667307170233</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.71690077455702</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.293962255525588</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.244708837263661</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.79560130413706</v>
       </c>
       <c r="P22">
-        <v>11.31264952474652</v>
+        <v>7.147192896882743</v>
       </c>
       <c r="Q22">
-        <v>19.43138575637101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.47722630319522</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.76480627053037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.54557798507469</v>
+        <v>16.43194122985498</v>
       </c>
       <c r="C23">
-        <v>20.3181632356919</v>
+        <v>8.708943582517637</v>
       </c>
       <c r="D23">
-        <v>4.409673853925127</v>
+        <v>6.812984064590298</v>
       </c>
       <c r="E23">
-        <v>37.93528199551817</v>
+        <v>8.465559652720426</v>
       </c>
       <c r="F23">
-        <v>25.52562432809528</v>
+        <v>22.13228910711421</v>
       </c>
       <c r="G23">
-        <v>2.045373237940637</v>
+        <v>26.64437491636395</v>
       </c>
       <c r="H23">
-        <v>4.476635571788233</v>
+        <v>2.535968560836227</v>
       </c>
       <c r="I23">
-        <v>4.234884081058053</v>
+        <v>3.282247840218474</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.234753212769528</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.83269803814121</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.254461842829853</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.240122409863661</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.58822762465889</v>
       </c>
       <c r="P23">
-        <v>11.34622501537988</v>
+        <v>7.085997236154999</v>
       </c>
       <c r="Q23">
-        <v>19.20377684041285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.32284171211992</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.87782205921618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51262758496888</v>
+        <v>15.24542239490797</v>
       </c>
       <c r="C24">
-        <v>18.93701595186494</v>
+        <v>8.502535429769546</v>
       </c>
       <c r="D24">
-        <v>4.245717152561948</v>
+        <v>6.430692949398439</v>
       </c>
       <c r="E24">
-        <v>35.15552401392027</v>
+        <v>8.311735887583058</v>
       </c>
       <c r="F24">
-        <v>24.03099774490324</v>
+        <v>22.24368239370113</v>
       </c>
       <c r="G24">
-        <v>2.053131939213595</v>
+        <v>24.76676114074722</v>
       </c>
       <c r="H24">
-        <v>4.059945008673057</v>
+        <v>2.794737999941461</v>
       </c>
       <c r="I24">
-        <v>3.934995918583402</v>
+        <v>3.478597778915028</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.937904235438271</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.16534092753489</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.185243216919365</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.216588312006043</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.77111543493975</v>
       </c>
       <c r="P24">
-        <v>11.48737804446741</v>
+        <v>6.860423952265812</v>
       </c>
       <c r="Q24">
-        <v>18.29734762139054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.7260724649852</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.166539652613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.12287659847034</v>
+        <v>13.85978758012595</v>
       </c>
       <c r="C25">
-        <v>17.3406112688562</v>
+        <v>8.225765320812114</v>
       </c>
       <c r="D25">
-        <v>4.058593364205172</v>
+        <v>6.085072940223516</v>
       </c>
       <c r="E25">
-        <v>31.92129429900232</v>
+        <v>8.154332847724131</v>
       </c>
       <c r="F25">
-        <v>22.36976730959418</v>
+        <v>22.08030721897908</v>
       </c>
       <c r="G25">
-        <v>2.061772739636632</v>
+        <v>24.53975647182634</v>
       </c>
       <c r="H25">
-        <v>3.593540973059603</v>
+        <v>3.097043680029701</v>
       </c>
       <c r="I25">
-        <v>3.602901949824975</v>
+        <v>3.712854984465951</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.04425980608119</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.37725526059014</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.287061637976774</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.181102407478333</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.80356459564481</v>
       </c>
       <c r="P25">
-        <v>11.65009461266547</v>
+        <v>6.613832134054279</v>
       </c>
       <c r="Q25">
-        <v>17.31236120644557</v>
+        <v>10.05501141412561</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.2695767812048</v>
       </c>
     </row>
   </sheetData>
